--- a/TOT数据.xlsx
+++ b/TOT数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="30720" windowHeight="13335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -971,13 +971,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C60"/>
+  <dimension ref="A2:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
@@ -990,468 +990,700 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>150</v>
       </c>
       <c r="B3" s="1">
         <v>2.904e-7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3">
+        <f>B3*10000000000</f>
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>200</v>
       </c>
       <c r="B4" s="1">
         <v>4.837e-7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4">
+        <f>B4*10000000000</f>
+        <v>4837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>250</v>
       </c>
       <c r="B5" s="1">
         <v>6.213e-7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5">
+        <f t="shared" ref="D5:D46" si="0">B5*10000000000</f>
+        <v>6213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>300</v>
       </c>
       <c r="B6" s="1">
         <v>7.333e-7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>7333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>350</v>
       </c>
       <c r="B7" s="1">
         <v>8.307e-7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>8307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>400</v>
       </c>
       <c r="B8" s="1">
         <v>9.19e-7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>9190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>450</v>
       </c>
       <c r="B9" s="1">
         <v>1.001e-6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>500</v>
       </c>
       <c r="B10" s="1">
         <v>1.079e-6</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>10790</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>550</v>
       </c>
       <c r="B11" s="1">
         <v>1.155e-6</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>11550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>600</v>
       </c>
       <c r="B12" s="1">
         <v>1.228e-6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>12280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>650</v>
       </c>
       <c r="B13" s="1">
         <v>1.299e-6</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>700</v>
       </c>
       <c r="B14" s="1">
         <v>1.369e-6</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>13690</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>750</v>
       </c>
       <c r="B15" s="1">
         <v>1.438e-6</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>14380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>800</v>
       </c>
       <c r="B16" s="1">
         <v>1.507e-6</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>15070</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>850</v>
       </c>
       <c r="B17" s="1">
         <v>1.575e-6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>15750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>900</v>
       </c>
       <c r="B18" s="1">
         <v>1.642e-6</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>16420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>950</v>
       </c>
       <c r="B19" s="1">
         <v>1.709e-6</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>17090</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>1000</v>
       </c>
       <c r="B20" s="1">
         <v>1.775e-6</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>17750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>1050</v>
       </c>
       <c r="B21" s="1">
         <v>1.841e-6</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>18410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>1100</v>
       </c>
       <c r="B22" s="1">
         <v>1.907e-6</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>19070</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>1150</v>
       </c>
       <c r="B23" s="1">
         <v>1.973e-6</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>19730</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>1200</v>
       </c>
       <c r="B24" s="1">
         <v>2.038e-6</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>20380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>1250</v>
       </c>
       <c r="B25" s="1">
         <v>2.103e-6</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>21030</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>1300</v>
       </c>
       <c r="B26" s="1">
         <v>2.169e-6</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>21690</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>1350</v>
       </c>
       <c r="B27" s="1">
         <v>2.234e-6</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>22340</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>1400</v>
       </c>
       <c r="B28" s="1">
         <v>2.298e-6</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>22980</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>1450</v>
       </c>
       <c r="B29" s="1">
         <v>2.363e-6</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>23630</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>1500</v>
       </c>
       <c r="B30" s="1">
         <v>2.428e-6</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>24280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>1550</v>
       </c>
       <c r="B31" s="1">
         <v>2.492e-6</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>24920</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>1600</v>
       </c>
       <c r="B32" s="1">
         <v>2.557e-6</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>25570</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>1650</v>
       </c>
       <c r="B33" s="1">
         <v>2.621e-6</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>26210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>1700</v>
       </c>
       <c r="B34" s="1">
         <v>2.686e-6</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>26860</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>1750</v>
       </c>
       <c r="B35" s="1">
         <v>2.75e-6</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>1800</v>
       </c>
       <c r="B36" s="1">
         <v>2.815e-6</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>28150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>1850</v>
       </c>
       <c r="B37" s="1">
         <v>2.879e-6</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>28790</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>1900</v>
       </c>
       <c r="B38" s="1">
         <v>2.944e-6</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>29440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>1950</v>
       </c>
       <c r="B39" s="1">
         <v>3.008e-6</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>30080</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>2000</v>
       </c>
       <c r="B40" s="1">
         <v>3.073e-6</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>30730</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>2050</v>
       </c>
       <c r="B41" s="1">
         <v>3.137e-6</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>31370</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>2100</v>
       </c>
       <c r="B42" s="1">
         <v>3.201e-6</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>32010</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>2150</v>
       </c>
       <c r="B43" s="1">
         <v>3.266e-6</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>32660</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>2200</v>
       </c>
       <c r="B44" s="1">
         <v>3.33e-6</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>2250</v>
       </c>
       <c r="B45" s="1">
         <v>3.395e-6</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>33950</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>2300</v>
       </c>
       <c r="B46" s="1">
         <v>3.459e-6</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>34590</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>2350</v>
       </c>
       <c r="B47" s="1">
         <v>3.523e-6</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="D47">
+        <f t="shared" ref="D47:D60" si="1">B47*10000000000</f>
+        <v>35230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>2400</v>
       </c>
       <c r="B48" s="1">
         <v>3.588e-6</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>35880</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>2450</v>
       </c>
       <c r="B49" s="1">
         <v>3.652e-6</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>36520</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>2500</v>
       </c>
       <c r="B50" s="1">
         <v>3.716e-6</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>37160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>2550</v>
       </c>
       <c r="B51" s="1">
         <v>3.781e-6</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>37810</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>2600</v>
       </c>
       <c r="B52" s="1">
         <v>3.845e-6</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>38450</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>2650</v>
       </c>
       <c r="B53" s="1">
         <v>3.909e-6</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>39090</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>2700</v>
       </c>
       <c r="B54" s="1">
         <v>3.973e-6</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>39730</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>2750</v>
       </c>
       <c r="B55" s="1">
         <v>4.038e-6</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>40380</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>2800</v>
       </c>
       <c r="B56" s="1">
         <v>4.102e-6</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>41020</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>2850</v>
       </c>
       <c r="B57" s="1">
         <v>4.166e-6</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>41660</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>2900</v>
       </c>
       <c r="B58" s="1">
         <v>4.231e-6</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>42310</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>2950</v>
       </c>
       <c r="B59" s="1">
         <v>4.295e-6</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>42950</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>3000</v>
       </c>
       <c r="B60" s="1">
         <v>4.359e-6</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>43590</v>
       </c>
     </row>
   </sheetData>
